--- a/proveedor/drimel/listos/nuevos/drimel_only.xlsx
+++ b/proveedor/drimel/listos/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3">
@@ -501,117 +501,117 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC MES XXGx52</t>
+          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8769</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7500435189668</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4953</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
+          <t>BABYSEC SUPER PREMIUM Gx44</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>9456</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7730219049028</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>462</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC SUPER PREMIUM Gx44</t>
+          <t>PAMPERS PANTS PC XXGx24</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>9456</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7730219049028</t>
+          <t>7500435178327</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2758</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC XXGx24</t>
+          <t>ST VALLEY HISOPOS x100</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>12065</t>
+          <t>12112</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7500435178327</t>
+          <t>7791274200861</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2409</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ST VALLEY HISOPOS x100</t>
+          <t>PAMPERS BABYSAN MES Gx72</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7500435228534</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>294</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Gx72</t>
+          <t>PAMPERS BABYSAN MES XXGx54</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>12412</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7500435228534</t>
+          <t>7500435228565</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -621,37 +621,37 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XXGx54</t>
+          <t>PAMPERS BabyDry MES Mx72</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>12414</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7500435228565</t>
+          <t>7500435228701</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3904</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Mx72</t>
+          <t>PAMPERS BabyDry MES Gx72</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7500435228701</t>
+          <t>7500435228695</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -661,17 +661,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Gx72</t>
+          <t>PAMPERS BabyDry MES XGx58</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>12416</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7500435228695</t>
+          <t>7500435228718</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -681,37 +681,37 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XGx58</t>
+          <t>PAMPERS BabyDry JUMBO XGx96</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>12416</t>
+          <t>12419</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7500435228718</t>
+          <t>7500435228671</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6293</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XGx96</t>
+          <t>PAMPERS BabyDry JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7500435228671</t>
+          <t>7500435228688</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -721,181 +721,141 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XXGx88</t>
+          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>12518</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7500435228688</t>
+          <t>7500435189149</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9325</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
+          <t>PAMPERS BABYSAN MES XGx58</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>12518</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7500435189149</t>
+          <t>7500435228558</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6712</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>PAMPERS BABYSAN Px52</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>14542</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>7500435230506</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3904</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN Px52</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7500435230506</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2750</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS BabyDry Px56</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>15764</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435228756</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2091</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry Px56</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>15764</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435228756</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3159</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>15779</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>7500435182881</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
         <v>3804</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>15782</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>7500435222433</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>6638</v>
       </c>
     </row>
   </sheetData>

--- a/proveedor/drimel/listos/nuevos/drimel_only.xlsx
+++ b/proveedor/drimel/listos/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,60 +801,40 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry Px56</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>15764</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7500435228756</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>3159</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>15779</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>7500435182881</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
         <v>3804</v>
       </c>
     </row>

--- a/proveedor/drimel/listos/nuevos/drimel_only.xlsx
+++ b/proveedor/drimel/listos/nuevos/drimel_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>471</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3">
@@ -501,117 +501,117 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC MES XXGx52</t>
+          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8769</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7500435189668</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4953</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
+          <t>BABYSEC SUPER PREMIUM Gx44</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>9456</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7730219049028</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>462</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BABYSEC SUPER PREMIUM Gx44</t>
+          <t>PAMPERS PANTS PC XXGx24</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>9456</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7730219049028</t>
+          <t>7500435178327</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2758</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC XXGx24</t>
+          <t>ST VALLEY HISOPOS x100</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>12065</t>
+          <t>12112</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7500435178327</t>
+          <t>7791274200861</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2409</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ST VALLEY HISOPOS x100</t>
+          <t>PAMPERS BABYSAN MES Gx72</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7500435228534</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>294</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Gx72</t>
+          <t>PAMPERS BABYSAN MES XXGx54</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>12412</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7500435228534</t>
+          <t>7500435228565</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -621,37 +621,37 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XXGx54</t>
+          <t>PAMPERS BabyDry MES Mx72</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>12414</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7500435228565</t>
+          <t>7500435228701</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3904</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Mx72</t>
+          <t>PAMPERS BabyDry MES Gx72</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12414</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7500435228701</t>
+          <t>7500435228695</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -661,17 +661,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Gx72</t>
+          <t>PAMPERS BabyDry MES XGx58</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>12415</t>
+          <t>12416</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7500435228695</t>
+          <t>7500435228718</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -681,37 +681,37 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XGx58</t>
+          <t>PAMPERS BabyDry JUMBO XGx96</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>12416</t>
+          <t>12419</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7500435228718</t>
+          <t>7500435228671</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6293</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XGx96</t>
+          <t>PAMPERS BabyDry JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7500435228671</t>
+          <t>7500435228688</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -721,181 +721,121 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XXGx88</t>
+          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>12518</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7500435228688</t>
+          <t>7500435189149</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9325</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
+          <t>PAMPERS BABYSAN MES XGx58</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>12518</t>
+          <t>13016</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7500435189149</t>
+          <t>7500435228558</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6712</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>PAMPERS BABYSAN Px52</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>13016</t>
+          <t>14542</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>7500435230506</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>3904</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN Px52</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>14542</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7500435230506</t>
+          <t>77946260119</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2750</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77946260119</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2091</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry Px56</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>15764</t>
+          <t>15779</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7500435228756</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>15777</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>7500435155953</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>15779</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>7500435182881</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
         <v>3804</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>15782</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>7500435222433</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>6638</v>
       </c>
     </row>
   </sheetData>
